--- a/dictionaries/core/2_3/2_3_yearly_rep.xlsx
+++ b/dictionaries/core/2_3/2_3_yearly_rep.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brend\projects\lifecycle\ds-dictionaries\dictionaries\core\2_3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A69E0FD-2F2F-4E0E-816E-C5205D2564F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14472" windowHeight="14556"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -257,54 +263,6 @@
     <t>decimal</t>
   </si>
   <si>
-    <t>pm25cu value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>pm25fe value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>pm25k value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>pm25ni value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>pm25s value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>pm25si value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>pm25v value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>pm25zn value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>pm10cu value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>pm10fe value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>pm10k value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>pm10ni value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>pm10s value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>pm10si value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>pm10v value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
-    <t>pm10zn value (extrapolated back in time using ratio method)</t>
-  </si>
-  <si>
     <t>population density</t>
   </si>
   <si>
@@ -1005,13 +963,61 @@
   </si>
   <si>
     <t>distance to meteorological station</t>
+  </si>
+  <si>
+    <t>pm25cu value</t>
+  </si>
+  <si>
+    <t>pm25fe value</t>
+  </si>
+  <si>
+    <t>pm25k value</t>
+  </si>
+  <si>
+    <t>pm25ni value</t>
+  </si>
+  <si>
+    <t>pm25s value</t>
+  </si>
+  <si>
+    <t>pm25si value</t>
+  </si>
+  <si>
+    <t>pm25v value</t>
+  </si>
+  <si>
+    <t>pm25zn value</t>
+  </si>
+  <si>
+    <t>pm10cu value</t>
+  </si>
+  <si>
+    <t>pm10fe value</t>
+  </si>
+  <si>
+    <t>pm10k value</t>
+  </si>
+  <si>
+    <t>pm10ni value</t>
+  </si>
+  <si>
+    <t>pm10s value</t>
+  </si>
+  <si>
+    <t>pm10si value</t>
+  </si>
+  <si>
+    <t>pm10v value</t>
+  </si>
+  <si>
+    <t>pm10zn value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1114,8 +1120,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1508,7 +1514,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1552,7 +1558,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1573,23 +1579,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG120"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D104" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="169.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="20.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="169.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="15" customHeight="1">
+    <row r="1" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1658,7 +1664,7 @@
       <c r="BF1"/>
       <c r="BG1"/>
     </row>
-    <row r="2" spans="1:59" ht="15" customHeight="1">
+    <row r="2" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1673,12 +1679,12 @@
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:59" ht="15" customHeight="1">
+    <row r="3" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="4" t="s">
@@ -1686,7 +1692,7 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:59" ht="15" customHeight="1">
+    <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1701,7 +1707,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:59" ht="15" customHeight="1">
+    <row r="5" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1712,11 +1718,11 @@
         <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:59" ht="15" customHeight="1">
+    <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1727,11 +1733,11 @@
         <v>4</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:59" ht="15" customHeight="1">
+    <row r="7" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1742,11 +1748,11 @@
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:59" ht="15" customHeight="1">
+    <row r="8" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1757,11 +1763,11 @@
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:59" ht="15" customHeight="1">
+    <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1772,11 +1778,11 @@
         <v>4</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:59" ht="15" customHeight="1">
+    <row r="10" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
@@ -1787,11 +1793,11 @@
         <v>4</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:59" ht="15" customHeight="1">
+    <row r="11" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1802,11 +1808,11 @@
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:59" ht="15" customHeight="1">
+    <row r="12" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -1817,11 +1823,11 @@
         <v>4</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:59" ht="15" customHeight="1">
+    <row r="13" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1832,11 +1838,11 @@
         <v>4</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:59" ht="15" customHeight="1">
+    <row r="14" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
@@ -1847,11 +1853,11 @@
         <v>4</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:59" ht="15" customHeight="1">
+    <row r="15" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
@@ -1862,11 +1868,11 @@
         <v>4</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:59" ht="15" customHeight="1">
+    <row r="16" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
@@ -1877,11 +1883,11 @@
         <v>4</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>25</v>
       </c>
@@ -1892,11 +1898,11 @@
         <v>4</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="E17"/>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
@@ -1907,11 +1913,11 @@
         <v>4</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>27</v>
       </c>
@@ -1922,11 +1928,11 @@
         <v>4</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>28</v>
       </c>
@@ -1937,11 +1943,11 @@
         <v>4</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
@@ -1956,7 +1962,7 @@
       </c>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
@@ -1971,7 +1977,7 @@
       </c>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
@@ -1986,7 +1992,7 @@
       </c>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
@@ -2001,7 +2007,7 @@
       </c>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>33</v>
       </c>
@@ -2016,7 +2022,7 @@
       </c>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>34</v>
       </c>
@@ -2027,13 +2033,13 @@
         <v>4</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>3</v>
@@ -2042,28 +2048,28 @@
         <v>4</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E27"/>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>3</v>
@@ -2072,26 +2078,26 @@
         <v>4</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
@@ -2102,11 +2108,11 @@
         <v>4</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>36</v>
       </c>
@@ -2117,11 +2123,11 @@
         <v>4</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
@@ -2132,11 +2138,11 @@
         <v>4</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>38</v>
       </c>
@@ -2151,7 +2157,7 @@
       </c>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
@@ -2166,1157 +2172,1157 @@
       </c>
       <c r="E35"/>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="B44" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="B45" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1">
-      <c r="A37" s="3" t="s">
+      <c r="B46" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D37" s="5" t="s">
+      <c r="B47" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1">
-      <c r="A38" s="3" t="s">
+      <c r="B48" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D38" s="5" t="s">
+      <c r="B49" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1">
-      <c r="A39" s="3" t="s">
+      <c r="B50" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="B51" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1">
-      <c r="A40" s="3" t="s">
+      <c r="B52" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D40" s="5" t="s">
+      <c r="B53" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1">
-      <c r="A41" s="3" t="s">
+      <c r="B54" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="4" t="s">
+      <c r="B55" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="B56" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1">
-      <c r="A42" s="3" t="s">
+      <c r="B57" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D42" s="5" t="s">
+      <c r="B58" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1">
-      <c r="A43" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D43" s="5" t="s">
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1">
-      <c r="A44" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D44" s="5" t="s">
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1">
-      <c r="A45" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D45" s="5" t="s">
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1">
-      <c r="A46" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D46" s="5" t="s">
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1">
-      <c r="A47" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D47" s="5" t="s">
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1">
-      <c r="A48" s="3" t="s">
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1">
-      <c r="A49" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1">
-      <c r="A50" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D50" s="5" t="s">
+      <c r="D66" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1">
-      <c r="A51" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D51" s="5" t="s">
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1">
-      <c r="A52" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D52" s="5" t="s">
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1">
-      <c r="A53" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D53" s="5" t="s">
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1">
-      <c r="A54" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D54" s="5" t="s">
+      <c r="D70" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1">
-      <c r="A55" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D55" s="5" t="s">
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1">
-      <c r="A56" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D56" s="5" t="s">
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1">
-      <c r="A57" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D57" s="5" t="s">
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D73" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1">
-      <c r="A58" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D58" s="5" t="s">
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D74" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1">
-      <c r="A59" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D59" s="5" t="s">
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1">
-      <c r="A60" s="3" t="s">
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D60" s="5" t="s">
+      <c r="D76" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1">
-      <c r="A61" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D61" s="5" t="s">
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1">
-      <c r="A62" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D62" s="5" t="s">
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D78" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1">
-      <c r="A63" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D63" s="5" t="s">
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D79" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1">
-      <c r="A64" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D64" s="5" t="s">
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D80" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1">
-      <c r="A65" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D65" s="5" t="s">
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D81" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1">
-      <c r="A66" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D66" s="5" t="s">
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D82" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1">
-      <c r="A67" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1">
-      <c r="A68" s="3" t="s">
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D68" s="5" t="s">
+      <c r="B83" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D83" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1">
-      <c r="A69" s="3" t="s">
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D69" s="5" t="s">
+      <c r="B84" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D84" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1">
-      <c r="A70" s="3" t="s">
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70" s="4" t="s">
+      <c r="B85" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D85" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D70" s="5" t="s">
+    </row>
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D86" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1">
-      <c r="A71" s="3" t="s">
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1">
-      <c r="A72" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1">
-      <c r="A73" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1">
-      <c r="A74" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1">
-      <c r="A75" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1">
-      <c r="A76" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1">
-      <c r="A77" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1">
-      <c r="A78" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1">
-      <c r="A79" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1">
-      <c r="A80" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1">
-      <c r="A81" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1">
-      <c r="A82" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D82" s="5" t="s">
+      <c r="D98" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1">
-      <c r="A83" s="3" t="s">
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1">
-      <c r="A84" s="3" t="s">
+      <c r="B101" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1">
-      <c r="A85" s="3" t="s">
+      <c r="D101" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C85" s="4" t="s">
+      <c r="B102" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1">
-      <c r="A86" s="3" t="s">
+      <c r="D102" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C86" s="4" t="s">
+      <c r="B103" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1">
-      <c r="A87" s="3" t="s">
+      <c r="D103" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C87" s="4" t="s">
+      <c r="B104" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D87" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1">
-      <c r="A88" s="3" t="s">
+      <c r="D104" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1">
-      <c r="A89" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D89" s="5" t="s">
+      <c r="B105" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D105" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1">
-      <c r="A90" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D90" s="5" t="s">
+    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D106" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1">
-      <c r="A91" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C91" s="4" t="s">
+    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="B107" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D116" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1">
-      <c r="A92" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1">
-      <c r="A93" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1">
-      <c r="A94" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1">
-      <c r="A95" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1">
-      <c r="A96" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1">
-      <c r="A97" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1">
-      <c r="A98" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1">
-      <c r="A99" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1">
-      <c r="A100" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1">
-      <c r="A101" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1">
-      <c r="A102" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1">
-      <c r="A103" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1">
-      <c r="A104" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1">
-      <c r="A105" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1">
-      <c r="A106" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1">
-      <c r="A107" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1">
-      <c r="A108" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1">
-      <c r="A109" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1">
-      <c r="A110" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1">
-      <c r="A111" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1">
-      <c r="A112" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1">
-      <c r="A113" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1">
-      <c r="A114" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1">
-      <c r="A115" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1">
-      <c r="A116" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1">
+    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="15" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="12" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>3</v>
@@ -3325,12 +3331,12 @@
         <v>4</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="15" customHeight="1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="12" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>3</v>
@@ -3339,12 +3345,12 @@
         <v>4</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="15" customHeight="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="12" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>3</v>
@@ -3353,7 +3359,7 @@
         <v>4</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -3366,23 +3372,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A99" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="A132" sqref="A132:D137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" style="1"/>
-    <col min="3" max="3" width="37.44140625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="17.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="1"/>
+    <col min="3" max="3" width="37.453125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="45.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -3396,7 +3402,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -3410,7 +3416,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -3424,7 +3430,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -3438,7 +3444,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3452,7 +3458,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -3466,7 +3472,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -3480,7 +3486,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -3494,7 +3500,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -3508,7 +3514,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -3522,7 +3528,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -3536,7 +3542,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -3550,7 +3556,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -3564,7 +3570,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -3578,7 +3584,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -3592,7 +3598,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -3606,7 +3612,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -3620,7 +3626,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -3634,7 +3640,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -3648,7 +3654,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
@@ -3662,7 +3668,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
@@ -3676,7 +3682,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -3690,7 +3696,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -3704,7 +3710,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
@@ -3718,7 +3724,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
@@ -3732,7 +3738,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
@@ -3746,7 +3752,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
@@ -3760,7 +3766,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
@@ -3774,7 +3780,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>18</v>
       </c>
@@ -3788,7 +3794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>18</v>
       </c>
@@ -3802,7 +3808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>18</v>
       </c>
@@ -3816,7 +3822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>18</v>
       </c>
@@ -3830,7 +3836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>19</v>
       </c>
@@ -3844,7 +3850,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
@@ -3858,7 +3864,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
@@ -3872,7 +3878,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>19</v>
       </c>
@@ -3886,7 +3892,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
@@ -3900,7 +3906,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -3914,7 +3920,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>20</v>
       </c>
@@ -3928,7 +3934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>20</v>
       </c>
@@ -3942,7 +3948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>20</v>
       </c>
@@ -3956,7 +3962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>20</v>
       </c>
@@ -3970,7 +3976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>21</v>
       </c>
@@ -3984,7 +3990,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>21</v>
       </c>
@@ -3998,7 +4004,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>21</v>
       </c>
@@ -4012,7 +4018,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>21</v>
       </c>
@@ -4026,7 +4032,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>21</v>
       </c>
@@ -4040,7 +4046,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>21</v>
       </c>
@@ -4054,7 +4060,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>21</v>
       </c>
@@ -4068,7 +4074,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>21</v>
       </c>
@@ -4082,7 +4088,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>21</v>
       </c>
@@ -4096,7 +4102,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>21</v>
       </c>
@@ -4110,7 +4116,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>22</v>
       </c>
@@ -4124,7 +4130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>22</v>
       </c>
@@ -4138,7 +4144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>22</v>
       </c>
@@ -4152,7 +4158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>22</v>
       </c>
@@ -4166,7 +4172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1">
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>23</v>
       </c>
@@ -4180,7 +4186,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1">
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>23</v>
       </c>
@@ -4194,7 +4200,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1">
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>23</v>
       </c>
@@ -4208,7 +4214,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1">
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>23</v>
       </c>
@@ -4222,7 +4228,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1">
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>23</v>
       </c>
@@ -4236,7 +4242,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1">
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>23</v>
       </c>
@@ -4250,7 +4256,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1">
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>23</v>
       </c>
@@ -4264,7 +4270,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1">
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>23</v>
       </c>
@@ -4278,7 +4284,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1">
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>23</v>
       </c>
@@ -4292,7 +4298,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1">
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>23</v>
       </c>
@@ -4306,7 +4312,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1">
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>24</v>
       </c>
@@ -4320,7 +4326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1">
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>24</v>
       </c>
@@ -4334,7 +4340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1">
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>24</v>
       </c>
@@ -4348,7 +4354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1">
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>24</v>
       </c>
@@ -4362,7 +4368,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1">
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>25</v>
       </c>
@@ -4376,7 +4382,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1">
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>25</v>
       </c>
@@ -4390,7 +4396,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1">
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>25</v>
       </c>
@@ -4404,7 +4410,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1">
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>26</v>
       </c>
@@ -4418,7 +4424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1">
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>26</v>
       </c>
@@ -4432,7 +4438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1">
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>26</v>
       </c>
@@ -4446,7 +4452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1">
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>26</v>
       </c>
@@ -4460,7 +4466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1">
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>27</v>
       </c>
@@ -4474,7 +4480,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1">
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>27</v>
       </c>
@@ -4488,7 +4494,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1">
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>27</v>
       </c>
@@ -4502,7 +4508,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1">
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>28</v>
       </c>
@@ -4516,7 +4522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1">
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>28</v>
       </c>
@@ -4530,7 +4536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1">
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>28</v>
       </c>
@@ -4544,7 +4550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1">
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>28</v>
       </c>
@@ -4558,7 +4564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1">
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>29</v>
       </c>
@@ -4569,10 +4575,10 @@
         <v>0</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>29</v>
       </c>
@@ -4583,10 +4589,10 @@
         <v>0</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>30</v>
       </c>
@@ -4597,10 +4603,10 @@
         <v>0</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>30</v>
       </c>
@@ -4611,10 +4617,10 @@
         <v>0</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>31</v>
       </c>
@@ -4625,10 +4631,10 @@
         <v>0</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>31</v>
       </c>
@@ -4639,10 +4645,10 @@
         <v>0</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>32</v>
       </c>
@@ -4653,10 +4659,10 @@
         <v>0</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>32</v>
       </c>
@@ -4667,10 +4673,10 @@
         <v>0</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>33</v>
       </c>
@@ -4681,10 +4687,10 @@
         <v>0</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
         <v>33</v>
       </c>
@@ -4695,10 +4701,10 @@
         <v>0</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>34</v>
       </c>
@@ -4709,10 +4715,10 @@
         <v>0</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>34</v>
       </c>
@@ -4723,12 +4729,12 @@
         <v>0</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="B97" s="3">
         <v>0</v>
@@ -4737,12 +4743,12 @@
         <v>0</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="B98" s="3">
         <v>1</v>
@@ -4751,12 +4757,12 @@
         <v>0</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="B99" s="3">
         <v>0</v>
@@ -4765,12 +4771,12 @@
         <v>0</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="B100" s="3">
         <v>1</v>
@@ -4779,10 +4785,10 @@
         <v>0</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="6" t="s">
         <v>35</v>
       </c>
@@ -4793,10 +4799,10 @@
         <v>0</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
         <v>35</v>
       </c>
@@ -4807,10 +4813,10 @@
         <v>0</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>36</v>
       </c>
@@ -4821,10 +4827,10 @@
         <v>0</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>36</v>
       </c>
@@ -4835,10 +4841,10 @@
         <v>0</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>36</v>
       </c>
@@ -4849,10 +4855,10 @@
         <v>0</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>36</v>
       </c>
@@ -4863,10 +4869,10 @@
         <v>0</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="6" t="s">
         <v>37</v>
       </c>
@@ -4877,10 +4883,10 @@
         <v>0</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="6" t="s">
         <v>37</v>
       </c>
@@ -4891,12 +4897,12 @@
         <v>0</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B109" s="3">
         <v>1</v>
@@ -4905,26 +4911,26 @@
         <v>0</v>
       </c>
       <c r="D109" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B110" s="3">
+        <v>0</v>
+      </c>
+      <c r="C110" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="5" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1">
-      <c r="A110" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B110" s="3">
-        <v>0</v>
-      </c>
-      <c r="C110" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1">
-      <c r="A111" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="B111" s="3">
         <v>1</v>
@@ -4933,13 +4939,13 @@
         <v>0</v>
       </c>
       <c r="D111" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="5" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1">
-      <c r="A112" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="B112" s="3">
         <v>0</v>
       </c>
@@ -4947,12 +4953,12 @@
         <v>0</v>
       </c>
       <c r="D112" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="5" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1">
-      <c r="A113" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="B113" s="3">
         <v>1</v>
@@ -4961,12 +4967,12 @@
         <v>0</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B114" s="3">
         <v>2</v>
@@ -4975,12 +4981,12 @@
         <v>0</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B115" s="3">
         <v>3</v>
@@ -4989,12 +4995,12 @@
         <v>0</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B116" s="3">
         <v>4</v>
@@ -5003,12 +5009,12 @@
         <v>0</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B117" s="3">
         <v>5</v>
@@ -5017,12 +5023,12 @@
         <v>0</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B118" s="3">
         <v>1</v>
@@ -5031,12 +5037,12 @@
         <v>0</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="15" customHeight="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B119" s="3">
         <v>2</v>
@@ -5045,12 +5051,12 @@
         <v>0</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="15" customHeight="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B120" s="3">
         <v>3</v>
@@ -5059,12 +5065,12 @@
         <v>0</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="15" customHeight="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B121" s="3">
         <v>4</v>
@@ -5073,12 +5079,12 @@
         <v>0</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="15" customHeight="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B122" s="3">
         <v>5</v>
@@ -5087,12 +5093,12 @@
         <v>0</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="15" customHeight="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B123" s="3">
         <v>6</v>
@@ -5101,12 +5107,12 @@
         <v>0</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="B124" s="3">
         <v>1</v>
@@ -5115,12 +5121,12 @@
         <v>0</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="B125" s="3">
         <v>2</v>
@@ -5129,12 +5135,12 @@
         <v>0</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="B126" s="3">
         <v>3</v>
@@ -5143,12 +5149,12 @@
         <v>0</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B127" s="3">
         <v>1</v>
@@ -5157,12 +5163,12 @@
         <v>0</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B128" s="3">
         <v>2</v>
@@ -5171,12 +5177,12 @@
         <v>0</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B129" s="3">
         <v>3</v>
@@ -5185,12 +5191,12 @@
         <v>0</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B130" s="3">
         <v>4</v>
@@ -5199,12 +5205,12 @@
         <v>0</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B131" s="3">
         <v>5</v>
@@ -5213,12 +5219,12 @@
         <v>0</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="11" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="B132" s="11">
         <v>0</v>
@@ -5227,12 +5233,12 @@
         <v>0</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="11" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="B133" s="11">
         <v>1</v>
@@ -5241,12 +5247,12 @@
         <v>0</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="11" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="B134" s="11">
         <v>0</v>
@@ -5255,12 +5261,12 @@
         <v>0</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="11" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="B135" s="11">
         <v>1</v>
@@ -5269,12 +5275,12 @@
         <v>0</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="11" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="B136" s="11">
         <v>0</v>
@@ -5283,12 +5289,12 @@
         <v>0</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="11" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="B137" s="11">
         <v>1</v>
@@ -5297,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
